--- a/dados_semana02.xlsx
+++ b/dados_semana02.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
   <si>
     <t xml:space="preserve">Fungicida</t>
   </si>
@@ -54,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">XY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masculino</t>
   </si>
 </sst>
 </file>
@@ -68,6 +75,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,9 +135,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,379 +278,379 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D2:F16 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>107</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>107</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>109</v>
       </c>
     </row>
@@ -652,106 +672,423 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="D2:F16 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>67.9</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>79.9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>80.5</v>
       </c>
     </row>
   </sheetData>
